--- a/Data/9. 지원_관계.xlsx
+++ b/Data/9. 지원_관계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\고병철\Desktop\GitKraken\DatabaseProgrammingTeamProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23D7E8-C455-4B04-A778-9B6F40A1CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2042D01E-003D-434F-9F56-A6A872C26882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="3900" windowWidth="10140" windowHeight="10170" xr2:uid="{0D8F70A6-BAFC-4FA3-A4FE-163B5086FDB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D8F70A6-BAFC-4FA3-A4FE-163B5086FDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3310E04A-B9E0-4E84-BB68-B95105687FB2}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
